--- a/cypress/fixtures/mnpstaging3.xlsx
+++ b/cypress/fixtures/mnpstaging3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>84391200544</v>
+        <v>84391200546</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
